--- a/biology/Zoologie/Heterocidaris/Heterocidaris.xlsx
+++ b/biology/Zoologie/Heterocidaris/Heterocidaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterocidaridae
 Heterocidaris est un genre fossile d'oursins de l'ordre des Cidaroida, le seul de la famille des Heterocidaridae.
@@ -512,11 +524,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers : le test (coquille) est arrondi, avec le péristome (bouche) située au centre de la face orale (inférieure) et le périprocte (appareil contenant l'anus et les pores génitaux) à l'opposé, au sommet de la face aborale (supérieure).
-Cette famille se distingue des autres cidaroïdes par ses paires de tubercules quasi-isométriques aux interambulacres[2].
-Cette famille, très peu documentée, semble avoir été présente au Jurassique, en Europe[2].
+Cette famille se distingue des autres cidaroïdes par ses paires de tubercules quasi-isométriques aux interambulacres.
+Cette famille, très peu documentée, semble avoir été présente au Jurassique, en Europe.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>genre Heterocidaris Cotteau, 1860 †
-espèce Heterocidaris wickensis † (selon Paleobiology Database                   (12 janvier 2021)[3]
-espèce Heterocidaris trigeri Cotteau, 1860 † (selon l'Echinoid Directory[2])</t>
+espèce Heterocidaris wickensis † (selon Paleobiology Database                   (12 janvier 2021)
+espèce Heterocidaris trigeri Cotteau, 1860 † (selon l'Echinoid Directory)</t>
         </is>
       </c>
     </row>
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Famille des Heterocidaridae :
 (en) Mortensen, T. 1934 : « New Echinoidea. (Preliminary Notice) ». Videnskabelige Meddelelser fra Danks naturhistorisk Forening i Kobenhavn, vol. 98, p. 161-167.
